--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3727008.162307236</v>
+        <v>3724510.430383547</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.671299835028081</v>
       </c>
       <c r="E2" t="n">
-        <v>102.3142344718662</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616885</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17.56714738419099</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.63894228091063</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063269</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616885</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>294.9177786878665</v>
       </c>
       <c r="X5" t="n">
-        <v>265.9383958729597</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>253.9376911885427</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>179.4864123522762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>115.7624233403557</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2073548434028</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>49.9467516048418</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>67.99491930587892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979376</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,61 +4304,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.0707862810968</v>
+        <v>918.9787735270222</v>
       </c>
       <c r="C2" t="n">
-        <v>176.0707862810968</v>
+        <v>918.9787735270222</v>
       </c>
       <c r="D2" t="n">
-        <v>176.0707862810968</v>
+        <v>915.2703898552767</v>
       </c>
       <c r="E2" t="n">
-        <v>72.72307469335318</v>
+        <v>915.2703898552767</v>
       </c>
       <c r="F2" t="n">
-        <v>65.77757394414971</v>
+        <v>908.3248891060732</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7180875944842</v>
+        <v>491.2249987160036</v>
       </c>
       <c r="H2" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745325</v>
+        <v>474.9025859199828</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896754</v>
+        <v>1025.843037648562</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070954</v>
+        <v>1210.458592371934</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026069</v>
+        <v>1629.431735936308</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780566</v>
+        <v>2174.593372690802</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385544</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140764</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
         <v>2010.107259195795</v>
@@ -4367,13 +4367,13 @@
         <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1326.27571658211</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>952.8099583210303</v>
+        <v>1305.578613591144</v>
       </c>
       <c r="Y2" t="n">
-        <v>562.6706263452186</v>
+        <v>1305.578613591144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640336</v>
+        <v>199.8245529640339</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352082</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K3" t="n">
-        <v>499.1804835727255</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L3" t="n">
-        <v>1002.163317769837</v>
+        <v>667.252839935339</v>
       </c>
       <c r="M3" t="n">
-        <v>1238.315708304456</v>
+        <v>1306.189304916056</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085765</v>
+        <v>1958.575638897798</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.24622229144</v>
+        <v>2506.500878103472</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018975</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819.762133523845</v>
+        <v>70.46268091184885</v>
       </c>
       <c r="C4" t="n">
-        <v>819.762133523845</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D4" t="n">
-        <v>669.6454941115093</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E4" t="n">
-        <v>521.7324005291161</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>374.8424530312058</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>349.9546325454374</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>195.6516983569627</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239601</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628167</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421862</v>
+        <v>840.2167432160254</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421862</v>
+        <v>614.5643391546963</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421862</v>
+        <v>614.5643391546963</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421862</v>
+        <v>359.8798509488095</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.751684421862</v>
+        <v>70.46268091184885</v>
       </c>
       <c r="X4" t="n">
-        <v>819.762133523845</v>
+        <v>70.46268091184885</v>
       </c>
       <c r="Y4" t="n">
-        <v>819.762133523845</v>
+        <v>70.46268091184885</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.779946879164</v>
+        <v>776.8584499902007</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.817429938752</v>
+        <v>776.8584499902007</v>
       </c>
       <c r="D5" t="n">
-        <v>862.5517313320015</v>
+        <v>776.8584499902007</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7634787337573</v>
+        <v>391.0701973919565</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414971</v>
+        <v>384.124696642753</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>371.0652102930875</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002509</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745325</v>
+        <v>321.4042764948827</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031138</v>
+        <v>872.344728223462</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084392</v>
+        <v>1056.960282946834</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039507</v>
+        <v>1419.239895183002</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780566</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992996</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215016</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.143761215016</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.143761215016</v>
+        <v>1927.063380291214</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.519118919097</v>
+        <v>1553.597622030134</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.379786943285</v>
+        <v>1163.458290054323</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>164.2700057382214</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L6" t="n">
-        <v>667.2528399353331</v>
+        <v>1002.163317769834</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.189304916052</v>
+        <v>1238.315708304462</v>
       </c>
       <c r="N6" t="n">
-        <v>1958.575638897794</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O6" t="n">
-        <v>2506.500878103469</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>791.248966049597</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="C7" t="n">
-        <v>622.3127831216901</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D7" t="n">
-        <v>472.1961437093544</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E7" t="n">
-        <v>324.2830501269613</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F7" t="n">
-        <v>177.3931026290509</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>177.3931026290509</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>177.3931026290509</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628167</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421862</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421862</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="U7" t="n">
-        <v>791.248966049597</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="V7" t="n">
-        <v>791.248966049597</v>
+        <v>454.8100731544549</v>
       </c>
       <c r="W7" t="n">
-        <v>791.248966049597</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X7" t="n">
-        <v>791.248966049597</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>791.248966049597</v>
+        <v>52.71808759448422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.460808852556</v>
+        <v>1051.039069230067</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.498291912144</v>
+        <v>682.0765522896552</v>
       </c>
       <c r="D8" t="n">
-        <v>982.2325933053937</v>
+        <v>682.0765522896552</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4443407071494</v>
+        <v>296.2882996914109</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4584359175419</v>
+        <v>289.3427989422075</v>
       </c>
       <c r="G8" t="n">
         <v>172.4110581943734</v>
@@ -4799,7 +4799,7 @@
         <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
         <v>241.3579866082205</v>
@@ -4808,46 +4808,46 @@
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125547</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950954</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>2011.64543875972</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>2181.814464076679</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949308</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2486.199980892489</v>
+        <v>2421.104517991922</v>
       </c>
       <c r="U8" t="n">
-        <v>2486.199980892489</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="V8" t="n">
-        <v>2486.199980892489</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="W8" t="n">
-        <v>2486.199980892489</v>
+        <v>1814.644159466958</v>
       </c>
       <c r="X8" t="n">
-        <v>2486.199980892489</v>
+        <v>1441.178401205879</v>
       </c>
       <c r="Y8" t="n">
-        <v>2096.060648916678</v>
+        <v>1051.039069230067</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.6229446041677</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513798</v>
+        <v>155.1959933171734</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>484.6243976229833</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>988.9859374891018</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1168.483273843707</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.7709099347268</v>
+        <v>179.403883765259</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8347270068199</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>696.5456110855965</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="W10" t="n">
-        <v>1002.201504806514</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="X10" t="n">
-        <v>774.2119539084966</v>
+        <v>179.403883765259</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.4193747649665</v>
+        <v>179.403883765259</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.749820929699</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.332650892738</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.343099994721</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511906</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409168</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.0469775526512</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>32.54693334942385</v>
       </c>
       <c r="M3" t="n">
-        <v>58.85246329939326</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792267</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>171.7807842918377</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532116</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42368237239666</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329940489</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792245</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.580592581846</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>99.17134305364013</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>109.7462412654528</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.3127195243205</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>710627.198079787</v>
+        <v>710627.1980797873</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>710627.198079787</v>
+        <v>710627.1980797873</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.933122243</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448472796</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695083</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695036</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280858.7124174538</v>
+        <v>-280858.7124174507</v>
       </c>
       <c r="C6" t="n">
-        <v>508987.2207047889</v>
+        <v>508987.2207047887</v>
       </c>
       <c r="D6" t="n">
-        <v>506872.2288974157</v>
+        <v>506872.2288974129</v>
       </c>
       <c r="E6" t="n">
-        <v>-116245.0128830886</v>
+        <v>-116279.7508085244</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499038</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499037</v>
+        <v>659344.521424468</v>
       </c>
       <c r="J6" t="n">
-        <v>486962.1179677632</v>
+        <v>486927.3800423275</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499033</v>
+        <v>659344.5214244678</v>
       </c>
       <c r="M6" t="n">
-        <v>531355.1418835169</v>
+        <v>531320.4039580813</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.2593499039</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499036</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499038</v>
+        <v>659344.5214244679</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632722954</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26984,7 +26984,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.0117417856549</v>
       </c>
       <c r="E2" t="n">
-        <v>279.6161356003956</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386865</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>149.6796737144369</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>142.2872114715221</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371265</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386865</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011781</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>54.32319002954654</v>
       </c>
       <c r="X5" t="n">
-        <v>103.7927048055093</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27792,10 +27792,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371265</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>32.32325677125587</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>107.0365859843148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>297.1544806055811</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>64.44450827156319</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956083</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>236.5762467317492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635114</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366208</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817865</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492047</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004297</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635114</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366208</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817865</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492047</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004297</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,28 +33020,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212868</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870131</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>635.993891799271</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789046</v>
+        <v>423.2051955195694</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540374</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176062</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138627</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K3" t="n">
-        <v>331.720259835876</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859715</v>
+        <v>169.7700569319346</v>
       </c>
       <c r="M3" t="n">
-        <v>238.5377682167863</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9952270518279</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814898</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045804</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689246</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995569</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428373</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212868</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965468</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M5" t="n">
-        <v>635.993891799271</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789046</v>
+        <v>365.9390022587559</v>
       </c>
       <c r="O5" t="n">
-        <v>538.7989603445037</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176062</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607414</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>112.6787051956941</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859715</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>645.390368667393</v>
+        <v>238.5377682167962</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310524</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814898</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646432</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307546</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995569</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831118</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>211.0241968410407</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>103.5130360835245</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,13 +35258,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
